--- a/Saved variable/Test.xlsx
+++ b/Saved variable/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Category A</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>Base wage</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>['BM230', ['2.0']]</t>
+  </si>
+  <si>
+    <t>['South', ['2.0']]</t>
+  </si>
+  <si>
+    <t>2500</t>
   </si>
 </sst>
 </file>
@@ -389,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +428,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
